--- a/Lab details.xlsx
+++ b/Lab details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Societe Generale/Societe_Generale_05_May/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D130F7D-E609-409E-B9EC-DB3F6E581039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{1D130F7D-E609-409E-B9EC-DB3F6E581039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F5E31A-540D-469E-B859-F3D7CAE78EC6}"/>
   <bookViews>
-    <workbookView xWindow="35820" yWindow="2220" windowWidth="21600" windowHeight="11175" xr2:uid="{E65686CE-53C0-4A5C-818A-71E143B59FD1}"/>
+    <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E65686CE-53C0-4A5C-818A-71E143B59FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +240,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -342,10 +350,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -371,8 +380,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -708,16 +721,17 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="8"/>
@@ -843,7 +857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -854,7 +868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -865,7 +879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -876,7 +890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -887,7 +901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -898,7 +912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -920,7 +934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -931,7 +945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -942,7 +956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -953,7 +967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -964,7 +978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -975,7 +989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -986,7 +1000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -997,7 +1011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -1008,7 +1022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -1027,7 +1041,10 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{CB4AD0DA-7314-40F6-B84C-ECA5344FBB57}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>